--- a/data/others_expenses.xlsx
+++ b/data/others_expenses.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="101">
   <si>
     <t>product</t>
   </si>
@@ -52,13 +52,16 @@
     <t>datum</t>
   </si>
   <si>
+    <t>preis/unit</t>
+  </si>
+  <si>
     <t>preis</t>
   </si>
   <si>
     <t>currency</t>
   </si>
   <si>
-    <t>Deutsche Ticket</t>
+    <t>DeutschlandTicket</t>
   </si>
   <si>
     <t>Mobilität</t>
@@ -67,15 +70,15 @@
     <t>DB</t>
   </si>
   <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>deutschland</t>
+  </si>
+  <si>
     <t>Deutsche Bahn</t>
   </si>
   <si>
-    <t>deutschland</t>
-  </si>
-  <si>
-    <t>units</t>
-  </si>
-  <si>
     <t>Wiesbaden</t>
   </si>
   <si>
@@ -85,16 +88,232 @@
     <t>euro</t>
   </si>
   <si>
-    <t>Fahrrad</t>
-  </si>
-  <si>
-    <t>Phoenix</t>
-  </si>
-  <si>
-    <t>Kleinanzeigen</t>
-  </si>
-  <si>
-    <t>Mainz</t>
+    <t>Creme</t>
+  </si>
+  <si>
+    <t>Barriereschutz</t>
+  </si>
+  <si>
+    <t>Skin Care</t>
+  </si>
+  <si>
+    <t>Balea med</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>WC Stein</t>
+  </si>
+  <si>
+    <t>Blau Kraft</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>WC-Frisch</t>
+  </si>
+  <si>
+    <t>KüchenPapier</t>
+  </si>
+  <si>
+    <t>3 lagig 4 stuck</t>
+  </si>
+  <si>
+    <t>Küche</t>
+  </si>
+  <si>
+    <t>Saugstark&amp;Sicher</t>
+  </si>
+  <si>
+    <t>Wärmflasche berry</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>ROSSMAN</t>
+  </si>
+  <si>
+    <t>Reddbull</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>Getränke</t>
+  </si>
+  <si>
+    <t>RedBull</t>
+  </si>
+  <si>
+    <t>Redbull</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>WC Frisch</t>
+  </si>
+  <si>
+    <t>Zauber</t>
+  </si>
+  <si>
+    <t>Shampoo</t>
+  </si>
+  <si>
+    <t>Pantene SP Miracle</t>
+  </si>
+  <si>
+    <t>Haar Pflege</t>
+  </si>
+  <si>
+    <t>Pantene</t>
+  </si>
+  <si>
+    <t>Gliss SP Liquid</t>
+  </si>
+  <si>
+    <t>Schwarzkopf</t>
+  </si>
+  <si>
+    <t>Facelle Normal</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Facelle</t>
+  </si>
+  <si>
+    <t>Alquette Balsam</t>
+  </si>
+  <si>
+    <t>Alquette</t>
+  </si>
+  <si>
+    <t>Zahns sens</t>
+  </si>
+  <si>
+    <t>Zahn Pflege</t>
+  </si>
+  <si>
+    <t>Dontodent</t>
+  </si>
+  <si>
+    <t>Gliss</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Leashes</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>Colossal curl Bounce</t>
+  </si>
+  <si>
+    <t>Nageöl</t>
+  </si>
+  <si>
+    <t>Nageln Pflege</t>
+  </si>
+  <si>
+    <t>t!u</t>
+  </si>
+  <si>
+    <t>Wimpernformer</t>
+  </si>
+  <si>
+    <t>Ebelin</t>
+  </si>
+  <si>
+    <t>Lackierhilfen</t>
+  </si>
+  <si>
+    <t>NagelBürste</t>
+  </si>
+  <si>
+    <t>Meta Glow Duo CHro</t>
+  </si>
+  <si>
+    <t>Colgate zc Max White</t>
+  </si>
+  <si>
+    <t>Scholl Hornhaut</t>
+  </si>
+  <si>
+    <t>FW HornHautfeile</t>
+  </si>
+  <si>
+    <t>Mawista</t>
+  </si>
+  <si>
+    <t>Feather</t>
+  </si>
+  <si>
+    <t>Sanft&amp;sicherToipa Premium</t>
+  </si>
+  <si>
+    <t>Denkmit Geschirr Caps Pow. Ener</t>
+  </si>
+  <si>
+    <t>WC-Frisch Blauspüller Blütten2St</t>
+  </si>
+  <si>
+    <t>Denkmit Colorwaschm. Flüssig</t>
+  </si>
+  <si>
+    <t>dmBio Erdnussmus 250g</t>
+  </si>
+  <si>
+    <t>Balea Men Flex-Pro Rasierer</t>
+  </si>
+  <si>
+    <t>Ebelin Prof. Paddle Bürste Kl.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALM N KOM </t>
+  </si>
+  <si>
+    <t>IKEA</t>
+  </si>
+  <si>
+    <t>SUCCULENT PFL+utopf</t>
+  </si>
+  <si>
+    <t>CHAMAEDOREA ELEGANS</t>
+  </si>
+  <si>
+    <t>CHIAFRön übertopf</t>
+  </si>
+  <si>
+    <t>Dracaena Pflanze 45</t>
+  </si>
+  <si>
+    <t>Boysenbär</t>
+  </si>
+  <si>
+    <t>Smaata Schnbr</t>
+  </si>
+  <si>
+    <t>Slöjstjart</t>
+  </si>
+  <si>
+    <t>USBMultiport</t>
+  </si>
+  <si>
+    <t>Saturn</t>
+  </si>
+  <si>
+    <t>Logitech Mouse</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
   </si>
 </sst>
 </file>
@@ -104,7 +323,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -114,6 +333,11 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -144,7 +368,7 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
@@ -154,6 +378,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -367,7 +597,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
@@ -411,13 +644,15 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -429,41 +664,42 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3">
         <v>1.0</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="H2" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J2" s="6">
         <v>0.0</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="7">
         <v>45833.0</v>
@@ -471,58 +707,1558 @@
       <c r="N2" s="3">
         <v>58.0</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="1"/>
+      <c r="O2" s="3">
+        <v>58.0</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="7">
+        <v>45841.0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>4.45</v>
+      </c>
+      <c r="O3" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="7">
+        <v>45841.0</v>
+      </c>
+      <c r="N4" s="8">
+        <v>3.25</v>
+      </c>
+      <c r="O4" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="7">
+        <v>45841.0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>2.85</v>
+      </c>
+      <c r="O5" s="3">
+        <v>2.85</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="9">
+        <v>45869.0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>5.49</v>
+      </c>
+      <c r="O6" s="8">
+        <v>5.49</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="9">
+        <v>45869.0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>1.39</v>
+      </c>
+      <c r="O7" s="8">
+        <v>1.39</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="9">
+        <v>45869.0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>1.39</v>
+      </c>
+      <c r="O8" s="8">
+        <v>1.39</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="9">
+        <v>45869.0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>1.49</v>
+      </c>
+      <c r="O9" s="8">
+        <v>1.49</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="9">
+        <v>45869.0</v>
+      </c>
+      <c r="N10" s="8">
+        <v>3.29</v>
+      </c>
+      <c r="O10" s="8">
+        <v>3.29</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="9">
+        <v>45869.0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>2.95</v>
+      </c>
+      <c r="O11" s="8">
+        <v>2.95</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="9">
+        <v>45869.0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="9">
+        <v>45869.0</v>
+      </c>
+      <c r="N13" s="8">
+        <v>1.49</v>
+      </c>
+      <c r="O13" s="8">
+        <v>1.49</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="9">
+        <v>45869.0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>1.49</v>
+      </c>
+      <c r="O14" s="8">
+        <v>1.49</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="9">
+        <v>45869.0</v>
+      </c>
+      <c r="N15" s="8">
+        <v>1.69</v>
+      </c>
+      <c r="O15" s="8">
+        <v>1.69</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="H16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="7">
+        <v>45864.0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>58.0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>58.0</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="7">
+        <v>45895.0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>58.0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>58.0</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="9">
+        <v>45842.0</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="O18" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="9">
+        <v>45842.0</v>
+      </c>
+      <c r="N19" s="8">
+        <v>3.95</v>
+      </c>
+      <c r="O19" s="8">
+        <v>3.95</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="9">
+        <v>45842.0</v>
+      </c>
+      <c r="N20" s="8">
+        <v>9.95</v>
+      </c>
+      <c r="O20" s="8">
+        <v>9.95</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="9">
+        <v>45842.0</v>
+      </c>
+      <c r="N21" s="8">
+        <v>1.95</v>
+      </c>
+      <c r="O21" s="8">
+        <v>1.95</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="9">
+        <v>45842.0</v>
+      </c>
+      <c r="N22" s="8">
+        <v>2.45</v>
+      </c>
+      <c r="O22" s="8">
+        <v>2.45</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="9">
+        <v>45842.0</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="9">
+        <v>45857.0</v>
+      </c>
+      <c r="N24" s="8">
+        <v>1.99</v>
+      </c>
+      <c r="O24" s="8">
+        <v>1.99</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="9">
+        <v>45857.0</v>
+      </c>
+      <c r="N25" s="8">
+        <v>2.45</v>
+      </c>
+      <c r="O25" s="8">
+        <v>2.45</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="9">
+        <v>45857.0</v>
+      </c>
+      <c r="N26" s="8">
+        <v>3.95</v>
+      </c>
+      <c r="O26" s="8">
+        <v>3.95</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="7">
-        <v>45837.0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>60.0</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="E27" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="9">
+        <v>45857.0</v>
+      </c>
+      <c r="N27" s="8">
+        <v>3.49</v>
+      </c>
+      <c r="O27" s="8">
+        <v>3.49</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="9">
+        <v>45857.0</v>
+      </c>
+      <c r="N28" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="O28" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="P28" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M29" s="9">
+        <v>45870.0</v>
+      </c>
+      <c r="N29" s="8">
+        <v>44.0</v>
+      </c>
+      <c r="O29" s="8">
+        <v>44.0</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M30" s="9">
+        <v>45870.0</v>
+      </c>
+      <c r="N30" s="8">
+        <v>72.0</v>
+      </c>
+      <c r="O30" s="8">
+        <v>72.0</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M31" s="9">
+        <v>45901.0</v>
+      </c>
+      <c r="N31" s="8">
+        <v>44.0</v>
+      </c>
+      <c r="O31" s="8">
+        <v>44.0</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M32" s="9">
+        <v>45901.0</v>
+      </c>
+      <c r="N32" s="8">
+        <v>72.0</v>
+      </c>
+      <c r="O32" s="8">
+        <v>72.0</v>
+      </c>
+      <c r="P32" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M33" s="9">
+        <v>45839.0</v>
+      </c>
+      <c r="N33" s="8">
+        <v>44.0</v>
+      </c>
+      <c r="O33" s="8">
+        <v>44.0</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M34" s="9">
+        <v>45839.0</v>
+      </c>
+      <c r="N34" s="8">
+        <v>72.0</v>
+      </c>
+      <c r="O34" s="8">
+        <v>72.0</v>
+      </c>
+      <c r="P34" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M35" s="9">
+        <v>45809.0</v>
+      </c>
+      <c r="N35" s="8">
+        <v>44.0</v>
+      </c>
+      <c r="O35" s="8">
+        <v>44.0</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M36" s="9">
+        <v>45809.0</v>
+      </c>
+      <c r="N36" s="8">
+        <v>72.0</v>
+      </c>
+      <c r="O36" s="8">
+        <v>72.0</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M37" s="9">
+        <v>45880.0</v>
+      </c>
+      <c r="N37" s="8">
+        <v>4.95</v>
+      </c>
+      <c r="O37" s="8">
+        <v>4.95</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" s="9">
+        <v>45880.0</v>
+      </c>
+      <c r="N38" s="8">
+        <v>3.95</v>
+      </c>
+      <c r="O38" s="8">
+        <v>3.95</v>
+      </c>
+      <c r="P38" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M39" s="9">
+        <v>45880.0</v>
+      </c>
+      <c r="N39" s="8">
+        <v>3.25</v>
+      </c>
+      <c r="O39" s="8">
+        <v>3.25</v>
+      </c>
+      <c r="P39" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M40" s="9">
+        <v>45880.0</v>
+      </c>
+      <c r="N40" s="8">
+        <v>3.15</v>
+      </c>
+      <c r="O40" s="8">
+        <v>3.15</v>
+      </c>
+      <c r="P40" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M41" s="9">
+        <v>45880.0</v>
+      </c>
+      <c r="N41" s="8">
+        <v>1.85</v>
+      </c>
+      <c r="O41" s="8">
+        <v>1.85</v>
+      </c>
+      <c r="P41" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M42" s="9">
+        <v>45880.0</v>
+      </c>
+      <c r="N42" s="8">
+        <v>5.75</v>
+      </c>
+      <c r="O42" s="8">
+        <v>5.75</v>
+      </c>
+      <c r="P42" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M43" s="9">
+        <v>45880.0</v>
+      </c>
+      <c r="N43" s="8">
+        <v>4.95</v>
+      </c>
+      <c r="O43" s="8">
+        <v>4.95</v>
+      </c>
+      <c r="P43" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M44" s="9">
+        <v>45849.0</v>
+      </c>
+      <c r="N44" s="8">
+        <v>149.0</v>
+      </c>
+      <c r="O44" s="8">
+        <v>149.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M45" s="9">
+        <v>45849.0</v>
+      </c>
+      <c r="N45" s="8">
+        <v>2.99</v>
+      </c>
+      <c r="O45" s="8">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M46" s="9">
+        <v>45849.0</v>
+      </c>
+      <c r="N46" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="O46" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M47" s="9">
+        <v>45849.0</v>
+      </c>
+      <c r="N47" s="8">
+        <v>2.99</v>
+      </c>
+      <c r="O47" s="8">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M48" s="9">
+        <v>45849.0</v>
+      </c>
+      <c r="N48" s="8">
+        <v>1.99</v>
+      </c>
+      <c r="O48" s="8">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M49" s="9">
+        <v>45849.0</v>
+      </c>
+      <c r="N49" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="O49" s="8">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M50" s="9">
+        <v>45849.0</v>
+      </c>
+      <c r="N50" s="8">
+        <v>6.99</v>
+      </c>
+      <c r="O50" s="8">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M51" s="9">
+        <v>45849.0</v>
+      </c>
+      <c r="N51" s="8">
+        <v>14.99</v>
+      </c>
+      <c r="O51" s="8">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M52" s="9">
+        <v>45867.0</v>
+      </c>
+      <c r="N52" s="8">
+        <v>31.99</v>
+      </c>
+      <c r="O52" s="8">
+        <v>31.99</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M53" s="9">
+        <v>45867.0</v>
+      </c>
+      <c r="N53" s="8">
+        <v>13.99</v>
+      </c>
+      <c r="O53" s="8">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M54" s="9">
+        <v>45867.0</v>
+      </c>
+      <c r="N54" s="8">
+        <v>82.99</v>
+      </c>
+      <c r="O54" s="8">
+        <v>82.99</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
